--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bmp6-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bmp6-Acvr2a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,16 +85,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Bmp6</t>
+  </si>
+  <si>
+    <t>Acvr2a</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Bmp6</t>
-  </si>
-  <si>
-    <t>Acvr2a</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.651253000000001</v>
+        <v>3.835339</v>
       </c>
       <c r="H2">
-        <v>25.953759</v>
+        <v>11.506017</v>
       </c>
       <c r="I2">
-        <v>0.709322844564615</v>
+        <v>0.4358468215464834</v>
       </c>
       <c r="J2">
-        <v>0.7093228445646149</v>
+        <v>0.4358468215464834</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.663472</v>
+        <v>10.50827633333333</v>
       </c>
       <c r="N2">
-        <v>40.990416</v>
+        <v>31.524829</v>
       </c>
       <c r="O2">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018133</v>
       </c>
       <c r="P2">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018134</v>
       </c>
       <c r="Q2">
-        <v>118.206153130416</v>
+        <v>40.30280204401033</v>
       </c>
       <c r="R2">
-        <v>1063.855378173744</v>
+        <v>362.725218396093</v>
       </c>
       <c r="S2">
-        <v>0.1534286686286608</v>
+        <v>0.07333824446755093</v>
       </c>
       <c r="T2">
-        <v>0.1534286686286607</v>
+        <v>0.07333824446755094</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.651253000000001</v>
+        <v>3.835339</v>
       </c>
       <c r="H3">
-        <v>25.953759</v>
+        <v>11.506017</v>
       </c>
       <c r="I3">
-        <v>0.709322844564615</v>
+        <v>0.4358468215464834</v>
       </c>
       <c r="J3">
-        <v>0.7093228445646149</v>
+        <v>0.4358468215464834</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>92.83779699999999</v>
       </c>
       <c r="O3">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849104</v>
       </c>
       <c r="P3">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849105</v>
       </c>
       <c r="Q3">
-        <v>267.721089936547</v>
+        <v>118.6881411693943</v>
       </c>
       <c r="R3">
-        <v>2409.489809428923</v>
+        <v>1068.193270524549</v>
       </c>
       <c r="S3">
-        <v>0.3474953655539352</v>
+        <v>0.2159745593612852</v>
       </c>
       <c r="T3">
-        <v>0.3474953655539352</v>
+        <v>0.2159745593612853</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,14 +649,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.651253000000001</v>
+        <v>3.835339</v>
       </c>
       <c r="H4">
-        <v>25.953759</v>
+        <v>11.506017</v>
       </c>
       <c r="I4">
-        <v>0.709322844564615</v>
+        <v>0.4358468215464834</v>
       </c>
       <c r="J4">
-        <v>0.7093228445646149</v>
+        <v>0.4358468215464834</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.057967000000001</v>
+        <v>6.495209666666667</v>
       </c>
       <c r="N4">
-        <v>15.173901</v>
+        <v>19.485629</v>
       </c>
       <c r="O4">
-        <v>0.08007141251452472</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="P4">
-        <v>0.08007141251452471</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="Q4">
-        <v>43.75775218265101</v>
+        <v>24.91133094774366</v>
       </c>
       <c r="R4">
-        <v>393.819769643859</v>
+        <v>224.201978529693</v>
       </c>
       <c r="S4">
-        <v>0.05679648209310939</v>
+        <v>0.04533067643938687</v>
       </c>
       <c r="T4">
-        <v>0.05679648209310937</v>
+        <v>0.04533067643938687</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.651253000000001</v>
+        <v>3.835339</v>
       </c>
       <c r="H5">
-        <v>25.953759</v>
+        <v>11.506017</v>
       </c>
       <c r="I5">
-        <v>0.709322844564615</v>
+        <v>0.4358468215464834</v>
       </c>
       <c r="J5">
-        <v>0.7093228445646149</v>
+        <v>0.4358468215464834</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.373288333333332</v>
+        <v>9.909791666666667</v>
       </c>
       <c r="N5">
-        <v>22.119865</v>
+        <v>29.729375</v>
       </c>
       <c r="O5">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="P5">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="Q5">
-        <v>63.78818281361499</v>
+        <v>38.00741046104167</v>
       </c>
       <c r="R5">
-        <v>574.0936453225349</v>
+        <v>342.066694149375</v>
       </c>
       <c r="S5">
-        <v>0.08279548656436449</v>
+        <v>0.06916136394007077</v>
       </c>
       <c r="T5">
-        <v>0.08279548656436446</v>
+        <v>0.06916136394007077</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.651253000000001</v>
+        <v>3.835339</v>
       </c>
       <c r="H6">
-        <v>25.953759</v>
+        <v>11.506017</v>
       </c>
       <c r="I6">
-        <v>0.709322844564615</v>
+        <v>0.4358468215464834</v>
       </c>
       <c r="J6">
-        <v>0.7093228445646149</v>
+        <v>0.4358468215464834</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.127540333333333</v>
+        <v>4.591137333333333</v>
       </c>
       <c r="N6">
-        <v>18.382621</v>
+        <v>13.773412</v>
       </c>
       <c r="O6">
-        <v>0.09700356086343023</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="P6">
-        <v>0.09700356086343022</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="Q6">
-        <v>53.010901691371</v>
+        <v>17.60856806888933</v>
       </c>
       <c r="R6">
-        <v>477.0981152223391</v>
+        <v>158.477112620004</v>
       </c>
       <c r="S6">
-        <v>0.0688068417245451</v>
+        <v>0.03204197733818952</v>
       </c>
       <c r="T6">
-        <v>0.06880684172454507</v>
+        <v>0.03204197733818952</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>5.232408</v>
       </c>
       <c r="I7">
-        <v>0.143003043469836</v>
+        <v>0.1982031137129723</v>
       </c>
       <c r="J7">
-        <v>0.143003043469836</v>
+        <v>0.1982031137129723</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.663472</v>
+        <v>10.50827633333333</v>
       </c>
       <c r="N7">
-        <v>40.990416</v>
+        <v>31.524829</v>
       </c>
       <c r="O7">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018133</v>
       </c>
       <c r="P7">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018134</v>
       </c>
       <c r="Q7">
-        <v>23.830953400192</v>
+        <v>18.32786305091467</v>
       </c>
       <c r="R7">
-        <v>214.478580601728</v>
+        <v>164.950767458232</v>
       </c>
       <c r="S7">
-        <v>0.03093198920287244</v>
+        <v>0.03335086477431497</v>
       </c>
       <c r="T7">
-        <v>0.03093198920287244</v>
+        <v>0.03335086477431498</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>5.232408</v>
       </c>
       <c r="I8">
-        <v>0.143003043469836</v>
+        <v>0.1982031137129723</v>
       </c>
       <c r="J8">
-        <v>0.143003043469836</v>
+        <v>0.1982031137129723</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>92.83779699999999</v>
       </c>
       <c r="O8">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849104</v>
       </c>
       <c r="P8">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849105</v>
       </c>
       <c r="Q8">
-        <v>53.97391463613066</v>
+        <v>53.97391463613067</v>
       </c>
       <c r="R8">
-        <v>485.7652317251759</v>
+        <v>485.765231725176</v>
       </c>
       <c r="S8">
-        <v>0.07005680875311106</v>
+        <v>0.09821530875527683</v>
       </c>
       <c r="T8">
-        <v>0.07005680875311106</v>
+        <v>0.09821530875527683</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>5.232408</v>
       </c>
       <c r="I9">
-        <v>0.143003043469836</v>
+        <v>0.1982031137129723</v>
       </c>
       <c r="J9">
-        <v>0.143003043469836</v>
+        <v>0.1982031137129723</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.057967000000001</v>
+        <v>6.495209666666667</v>
       </c>
       <c r="N9">
-        <v>15.173901</v>
+        <v>19.485629</v>
       </c>
       <c r="O9">
-        <v>0.08007141251452472</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="P9">
-        <v>0.08007141251452471</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="Q9">
-        <v>8.821782331512001</v>
+        <v>11.32852900718133</v>
       </c>
       <c r="R9">
-        <v>79.396040983608</v>
+        <v>101.956761064632</v>
       </c>
       <c r="S9">
-        <v>0.01145045568450575</v>
+        <v>0.02061430936933775</v>
       </c>
       <c r="T9">
-        <v>0.01145045568450575</v>
+        <v>0.02061430936933775</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1042,10 +1042,10 @@
         <v>5.232408</v>
       </c>
       <c r="I10">
-        <v>0.143003043469836</v>
+        <v>0.1982031137129723</v>
       </c>
       <c r="J10">
-        <v>0.143003043469836</v>
+        <v>0.1982031137129723</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.373288333333332</v>
+        <v>9.909791666666667</v>
       </c>
       <c r="N10">
-        <v>22.119865</v>
+        <v>29.729375</v>
       </c>
       <c r="O10">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="P10">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="Q10">
-        <v>12.86001762054666</v>
+        <v>17.28402439833334</v>
       </c>
       <c r="R10">
-        <v>115.74015858492</v>
+        <v>155.556219585</v>
       </c>
       <c r="S10">
-        <v>0.01669198539846475</v>
+        <v>0.03145141137640748</v>
       </c>
       <c r="T10">
-        <v>0.01669198539846475</v>
+        <v>0.03145141137640748</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>5.232408</v>
       </c>
       <c r="I11">
-        <v>0.143003043469836</v>
+        <v>0.1982031137129723</v>
       </c>
       <c r="J11">
-        <v>0.143003043469836</v>
+        <v>0.1982031137129723</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.127540333333333</v>
+        <v>4.591137333333333</v>
       </c>
       <c r="N11">
-        <v>18.382621</v>
+        <v>13.773412</v>
       </c>
       <c r="O11">
-        <v>0.09700356086343023</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="P11">
-        <v>0.09700356086343022</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="Q11">
-        <v>10.68726368681867</v>
+        <v>8.007567904010667</v>
       </c>
       <c r="R11">
-        <v>96.18537318136799</v>
+        <v>72.06811113609601</v>
       </c>
       <c r="S11">
-        <v>0.013871804430882</v>
+        <v>0.01457121943763525</v>
       </c>
       <c r="T11">
-        <v>0.01387180443088199</v>
+        <v>0.01457121943763525</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.796801</v>
+        <v>3.220265666666667</v>
       </c>
       <c r="H12">
-        <v>5.390403</v>
+        <v>9.660797000000001</v>
       </c>
       <c r="I12">
-        <v>0.1473210870652546</v>
+        <v>0.3659500647405443</v>
       </c>
       <c r="J12">
-        <v>0.1473210870652545</v>
+        <v>0.3659500647405443</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.663472</v>
+        <v>10.50827633333333</v>
       </c>
       <c r="N12">
-        <v>40.990416</v>
+        <v>31.524829</v>
       </c>
       <c r="O12">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018133</v>
       </c>
       <c r="P12">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018134</v>
       </c>
       <c r="Q12">
-        <v>24.550540153072</v>
+        <v>33.83944149207922</v>
       </c>
       <c r="R12">
-        <v>220.954861377648</v>
+        <v>304.554973428713</v>
       </c>
       <c r="S12">
-        <v>0.03186599504379843</v>
+        <v>0.06157698985994742</v>
       </c>
       <c r="T12">
-        <v>0.03186599504379842</v>
+        <v>0.06157698985994744</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.796801</v>
+        <v>3.220265666666667</v>
       </c>
       <c r="H13">
-        <v>5.390403</v>
+        <v>9.660797000000001</v>
       </c>
       <c r="I13">
-        <v>0.1473210870652546</v>
+        <v>0.3659500647405443</v>
       </c>
       <c r="J13">
-        <v>0.1473210870652545</v>
+        <v>0.3659500647405443</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>92.83779699999999</v>
       </c>
       <c r="O13">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849104</v>
       </c>
       <c r="P13">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849105</v>
       </c>
       <c r="Q13">
-        <v>55.60368216246567</v>
+        <v>99.65412341602321</v>
       </c>
       <c r="R13">
-        <v>500.433139462191</v>
+        <v>896.8871107442091</v>
       </c>
       <c r="S13">
-        <v>0.07217220676850815</v>
+        <v>0.1813387182683484</v>
       </c>
       <c r="T13">
-        <v>0.07217220676850813</v>
+        <v>0.1813387182683484</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,14 +1269,14 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>25</v>
       </c>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
       <c r="E14">
         <v>3</v>
       </c>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.796801</v>
+        <v>3.220265666666667</v>
       </c>
       <c r="H14">
-        <v>5.390403</v>
+        <v>9.660797000000001</v>
       </c>
       <c r="I14">
-        <v>0.1473210870652546</v>
+        <v>0.3659500647405443</v>
       </c>
       <c r="J14">
-        <v>0.1473210870652545</v>
+        <v>0.3659500647405443</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.057967000000001</v>
+        <v>6.495209666666667</v>
       </c>
       <c r="N14">
-        <v>15.173901</v>
+        <v>19.485629</v>
       </c>
       <c r="O14">
-        <v>0.08007141251452472</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="P14">
-        <v>0.08007141251452471</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="Q14">
-        <v>9.088160163567002</v>
+        <v>20.91630068736811</v>
       </c>
       <c r="R14">
-        <v>81.793441472103</v>
+        <v>188.246706186313</v>
       </c>
       <c r="S14">
-        <v>0.01179620753449021</v>
+        <v>0.03806099564719916</v>
       </c>
       <c r="T14">
-        <v>0.01179620753449021</v>
+        <v>0.03806099564719916</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
         <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.796801</v>
+        <v>3.220265666666667</v>
       </c>
       <c r="H15">
-        <v>5.390403</v>
+        <v>9.660797000000001</v>
       </c>
       <c r="I15">
-        <v>0.1473210870652546</v>
+        <v>0.3659500647405443</v>
       </c>
       <c r="J15">
-        <v>0.1473210870652545</v>
+        <v>0.3659500647405443</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.373288333333332</v>
+        <v>9.909791666666667</v>
       </c>
       <c r="N15">
-        <v>22.119865</v>
+        <v>29.729375</v>
       </c>
       <c r="O15">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="P15">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="Q15">
-        <v>13.24833185062167</v>
+        <v>31.91216186798611</v>
       </c>
       <c r="R15">
-        <v>119.234986655595</v>
+        <v>287.209456811875</v>
       </c>
       <c r="S15">
-        <v>0.01719600768285665</v>
+        <v>0.05806995568215691</v>
       </c>
       <c r="T15">
-        <v>0.01719600768285665</v>
+        <v>0.05806995568215691</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1393,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.796801</v>
+        <v>3.220265666666667</v>
       </c>
       <c r="H16">
-        <v>5.390403</v>
+        <v>9.660797000000001</v>
       </c>
       <c r="I16">
-        <v>0.1473210870652546</v>
+        <v>0.3659500647405443</v>
       </c>
       <c r="J16">
-        <v>0.1473210870652545</v>
+        <v>0.3659500647405443</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,338 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.127540333333333</v>
+        <v>4.591137333333333</v>
       </c>
       <c r="N16">
-        <v>18.382621</v>
+        <v>13.773412</v>
       </c>
       <c r="O16">
-        <v>0.09700356086343023</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="P16">
-        <v>0.09700356086343022</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="Q16">
-        <v>11.00997059847367</v>
+        <v>14.78468192548489</v>
       </c>
       <c r="R16">
-        <v>99.089735386263</v>
+        <v>133.062137329364</v>
       </c>
       <c r="S16">
-        <v>0.01429067003560113</v>
+        <v>0.02690340528289236</v>
       </c>
       <c r="T16">
-        <v>0.01429067003560112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.004305666666666666</v>
-      </c>
-      <c r="H17">
-        <v>0.012917</v>
-      </c>
-      <c r="I17">
-        <v>0.0003530249002944479</v>
-      </c>
-      <c r="J17">
-        <v>0.0003530249002944478</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>13.663472</v>
-      </c>
-      <c r="N17">
-        <v>40.990416</v>
-      </c>
-      <c r="O17">
-        <v>0.2163030132250088</v>
-      </c>
-      <c r="P17">
-        <v>0.2163030132250088</v>
-      </c>
-      <c r="Q17">
-        <v>0.05883035594133332</v>
-      </c>
-      <c r="R17">
-        <v>0.5294732034719999</v>
-      </c>
-      <c r="S17">
-        <v>7.636034967714737E-05</v>
-      </c>
-      <c r="T17">
-        <v>7.636034967714735E-05</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G18">
-        <v>0.004305666666666666</v>
-      </c>
-      <c r="H18">
-        <v>0.012917</v>
-      </c>
-      <c r="I18">
-        <v>0.0003530249002944479</v>
-      </c>
-      <c r="J18">
-        <v>0.0003530249002944478</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>30.94593233333333</v>
-      </c>
-      <c r="N18">
-        <v>92.83779699999999</v>
-      </c>
-      <c r="O18">
-        <v>0.4898973270305839</v>
-      </c>
-      <c r="P18">
-        <v>0.4898973270305839</v>
-      </c>
-      <c r="Q18">
-        <v>0.1332428693165555</v>
-      </c>
-      <c r="R18">
-        <v>1.199185823849</v>
-      </c>
-      <c r="S18">
-        <v>0.0001729459550294884</v>
-      </c>
-      <c r="T18">
-        <v>0.0001729459550294884</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G19">
-        <v>0.004305666666666666</v>
-      </c>
-      <c r="H19">
-        <v>0.012917</v>
-      </c>
-      <c r="I19">
-        <v>0.0003530249002944479</v>
-      </c>
-      <c r="J19">
-        <v>0.0003530249002944478</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>5.057967000000001</v>
-      </c>
-      <c r="N19">
-        <v>15.173901</v>
-      </c>
-      <c r="O19">
-        <v>0.08007141251452472</v>
-      </c>
-      <c r="P19">
-        <v>0.08007141251452471</v>
-      </c>
-      <c r="Q19">
-        <v>0.021777919913</v>
-      </c>
-      <c r="R19">
-        <v>0.196001279217</v>
-      </c>
-      <c r="S19">
-        <v>2.82672024193757E-05</v>
-      </c>
-      <c r="T19">
-        <v>2.826720241937569E-05</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G20">
-        <v>0.004305666666666666</v>
-      </c>
-      <c r="H20">
-        <v>0.012917</v>
-      </c>
-      <c r="I20">
-        <v>0.0003530249002944479</v>
-      </c>
-      <c r="J20">
-        <v>0.0003530249002944478</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>7.373288333333332</v>
-      </c>
-      <c r="N20">
-        <v>22.119865</v>
-      </c>
-      <c r="O20">
-        <v>0.1167246863664523</v>
-      </c>
-      <c r="P20">
-        <v>0.1167246863664523</v>
-      </c>
-      <c r="Q20">
-        <v>0.03174692180055554</v>
-      </c>
-      <c r="R20">
-        <v>0.2857222962049999</v>
-      </c>
-      <c r="S20">
-        <v>4.120672076641753E-05</v>
-      </c>
-      <c r="T20">
-        <v>4.120672076641752E-05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.004305666666666666</v>
-      </c>
-      <c r="H21">
-        <v>0.012917</v>
-      </c>
-      <c r="I21">
-        <v>0.0003530249002944479</v>
-      </c>
-      <c r="J21">
-        <v>0.0003530249002944478</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>6.127540333333333</v>
-      </c>
-      <c r="N21">
-        <v>18.382621</v>
-      </c>
-      <c r="O21">
-        <v>0.09700356086343023</v>
-      </c>
-      <c r="P21">
-        <v>0.09700356086343022</v>
-      </c>
-      <c r="Q21">
-        <v>0.02638314616188888</v>
-      </c>
-      <c r="R21">
-        <v>0.237448315457</v>
-      </c>
-      <c r="S21">
-        <v>3.424467240201886E-05</v>
-      </c>
-      <c r="T21">
-        <v>3.424467240201886E-05</v>
+        <v>0.02690340528289236</v>
       </c>
     </row>
   </sheetData>
